--- a/data/industry/TrendForce/Index.xlsx
+++ b/data/industry/TrendForce/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D448458-53FA-4C4D-B91C-6EBAADD837FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B004FA1-9C5B-4AE1-976E-6783DFA7319F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{D970FCE3-9B3C-441A-89B0-84CA015D6533}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="202">
   <si>
     <t>DRAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,6 +720,9 @@
     <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
@@ -729,7 +732,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -819,10 +822,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB4792-74F6-42F5-9603-9A72182489BF}">
-  <dimension ref="A1:E4288"/>
+  <dimension ref="A1:E4290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E4274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I4298" sqref="I4298"/>
+      <selection pane="bottomRight" activeCell="P4287" sqref="P4287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -78338,6 +78341,40 @@
       </c>
       <c r="E4288" s="10">
         <v>582210</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4289" s="3">
+        <v>46050</v>
+      </c>
+      <c r="B4289" s="3">
+        <v>46051</v>
+      </c>
+      <c r="C4289" s="4">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D4289" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4289" s="10">
+        <v>581227</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4290" s="3">
+        <v>46051</v>
+      </c>
+      <c r="B4290" s="3">
+        <v>46052</v>
+      </c>
+      <c r="C4290" s="4">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D4290" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4290" s="10">
+        <v>580061</v>
       </c>
     </row>
   </sheetData>
